--- a/location/all_tourist.xlsx
+++ b/location/all_tourist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lamyinyew/Documents/UM subjects/Data Analytics/assignment/data/location/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lamyinyew/Documents/git repos/review-data/location/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C78CB-B865-174A-9AF4-3D780683FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445ABE4-5016-4F49-B789-FA7099D5126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16740" xr2:uid="{75200B54-3E47-524B-8F78-F3E33F4520CA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="2277">
   <si>
     <t>href</t>
   </si>
@@ -7252,10 +7252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7597EB1-7712-2B4F-9486-B11891BB2374}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9517,26 +9517,6 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>283</v>
-      </c>
-      <c r="B114" t="s">
-        <v>284</v>
-      </c>
-      <c r="C114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114">
-        <v>7</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
         <v>10</v>
       </c>
     </row>
